--- a/code/wyc/output/data1_daily_real_AQI.xlsx
+++ b/code/wyc/output/data1_daily_real_AQI.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>IAQ</t>
+          <t>AQI</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
